--- a/cam/RP2040-ProMini-20231121-JLCPCB-BOM-SOIC.xlsx
+++ b/cam/RP2040-ProMini-20231121-JLCPCB-BOM-SOIC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG\Documents\KiCad\7.0\projects\RP2040-ProMini\cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1FF6D5-A305-4F2E-9F0D-85A64CF95467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F76DC7C-AB22-4BE6-B87C-4B3D9D9DD21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2112" yWindow="3384" windowWidth="12336" windowHeight="18756" xr2:uid="{1A36A938-FF2D-482B-8DC2-6C784DBF3E37}"/>
+    <workbookView xWindow="12852" yWindow="3156" windowWidth="12336" windowHeight="18756" xr2:uid="{1A36A938-FF2D-482B-8DC2-6C784DBF3E37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -253,13 +253,13 @@
     <t>SMD,P=1.27mm</t>
   </si>
   <si>
-    <t>C721880</t>
-  </si>
-  <si>
     <t>JTAG</t>
   </si>
   <si>
     <t>R4,R3,R5</t>
+  </si>
+  <si>
+    <t>C598540</t>
   </si>
 </sst>
 </file>
@@ -627,7 +627,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,7 +730,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -957,10 +957,10 @@
         <v>67</v>
       </c>
       <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
         <v>68</v>
-      </c>
-      <c r="E19" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
